--- a/pics/2021-11-17-ranksum/select_table.xlsx
+++ b/pics/2021-11-17-ranksum/select_table.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\angeloyeo.github.io\pics\2021-11-17-ranksum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C511C0-6D9C-4B59-9306-4BFA9B4912E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="KO" sheetId="1" r:id="rId1"/>
+    <sheet name="EN" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="89">
   <si>
     <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,23 +348,52 @@
     <t>* 가장 낮은 값: 1,가장 높은 값: 7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Treatment Drug</t>
+  </si>
+  <si>
+    <t>Amount of Urine per day
+(mL/d)</t>
+  </si>
+  <si>
+    <t>rank*</t>
+  </si>
+  <si>
+    <t>rank sum</t>
+  </si>
+  <si>
+    <t>* Lowest: 1,Highest: 7</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>rank sum T</t>
+  </si>
+  <si>
+    <t>combina
+-tions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -834,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,20 +916,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,6 +982,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,78 +994,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -989,12 +1016,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1036,7 +1066,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1069,9 +1099,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1104,6 +1151,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1279,42 +1343,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15" thickBot="1"/>
+    <row r="2" spans="2:16">
       <c r="B2" s="13"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="30"/>
-      <c r="M2" s="38" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="21"/>
+      <c r="M2" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="42" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="39"/>
-    </row>
-    <row r="3" spans="2:16" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="2:16" ht="44" thickBot="1">
       <c r="B3" s="14"/>
       <c r="C3" s="10">
         <v>1</v>
@@ -1334,27 +1398,27 @@
       <c r="H3" s="11">
         <v>6</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="17">
         <v>7</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="33" t="s">
         <v>75</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="34" t="s">
         <v>75</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="2:16">
+      <c r="B4" s="38" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1375,10 +1439,10 @@
       <c r="H4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="32">
+      <c r="I4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="23">
         <v>6</v>
       </c>
       <c r="M4" s="7">
@@ -1387,15 +1451,15 @@
       <c r="N4" s="9">
         <v>1</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="32">
         <v>1400</v>
       </c>
       <c r="P4" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
+    <row r="5" spans="2:16">
+      <c r="B5" s="39"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1414,10 +1478,10 @@
       <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="24">
         <v>7</v>
       </c>
       <c r="M5" s="2">
@@ -1426,15 +1490,15 @@
       <c r="N5" s="3">
         <v>5</v>
       </c>
-      <c r="O5" s="35">
+      <c r="O5" s="26">
         <v>1600</v>
       </c>
       <c r="P5" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="23"/>
+    <row r="6" spans="2:16" ht="15" thickBot="1">
+      <c r="B6" s="39"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1453,27 +1517,27 @@
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="24">
         <v>8</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="29">
         <v>1200</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="31">
         <v>3</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="26">
         <v>1180</v>
       </c>
       <c r="P6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="23"/>
+    <row r="7" spans="2:16" ht="15" thickBot="1">
+      <c r="B7" s="39"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1492,27 +1556,27 @@
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="24">
         <v>9</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="30">
         <v>1220</v>
       </c>
       <c r="P7" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
+    <row r="8" spans="2:16">
+      <c r="B8" s="39"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1531,21 +1595,21 @@
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="24">
         <v>10</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="39"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1564,15 +1628,15 @@
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="24">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
+    <row r="10" spans="2:16">
+      <c r="B10" s="39"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1591,15 +1655,15 @@
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="24">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
+    <row r="11" spans="2:16">
+      <c r="B11" s="39"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1618,15 +1682,15 @@
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
+    <row r="12" spans="2:16">
+      <c r="B12" s="39"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1645,15 +1709,15 @@
       <c r="H12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="24">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
+    <row r="13" spans="2:16">
+      <c r="B13" s="39"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1672,15 +1736,15 @@
       <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
+    <row r="14" spans="2:16">
+      <c r="B14" s="39"/>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1699,15 +1763,15 @@
       <c r="H14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="24">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
+    <row r="15" spans="2:16">
+      <c r="B15" s="39"/>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1726,15 +1790,15 @@
       <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="24">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
+    <row r="16" spans="2:16">
+      <c r="B16" s="39"/>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1753,15 +1817,15 @@
       <c r="H16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="24">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
+    <row r="17" spans="2:16">
+      <c r="B17" s="39"/>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1780,15 +1844,15 @@
       <c r="H17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="24">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
+    <row r="18" spans="2:16">
+      <c r="B18" s="39"/>
       <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1807,15 +1871,15 @@
       <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="24">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
+    <row r="19" spans="2:16">
+      <c r="B19" s="39"/>
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1834,15 +1898,15 @@
       <c r="H19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="24">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
+    <row r="20" spans="2:16">
+      <c r="B20" s="39"/>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1861,15 +1925,15 @@
       <c r="H20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="24">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
+    <row r="21" spans="2:16">
+      <c r="B21" s="39"/>
       <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
@@ -1888,20 +1952,15 @@
       <c r="H21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="24">
         <v>11</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="39"/>
       <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
@@ -1920,23 +1979,15 @@
       <c r="H22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="24">
         <v>12</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="39"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
@@ -1955,23 +2006,19 @@
       <c r="H23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="24">
         <v>11</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="39"/>
       <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
@@ -1990,23 +2037,16 @@
       <c r="H24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="24">
         <v>12</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="39"/>
       <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
@@ -2025,23 +2065,16 @@
       <c r="H25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="24">
         <v>13</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="39"/>
       <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
@@ -2060,23 +2093,16 @@
       <c r="H26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="24">
         <v>13</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="39"/>
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
@@ -2095,23 +2121,16 @@
       <c r="H27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="24">
         <v>14</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="39"/>
       <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
@@ -2130,23 +2149,16 @@
       <c r="H28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="24">
         <v>15</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="39"/>
       <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
@@ -2165,23 +2177,16 @@
       <c r="H29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="24">
         <v>12</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="39"/>
       <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
@@ -2200,23 +2205,16 @@
       <c r="H30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="24">
         <v>13</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="39"/>
       <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
@@ -2235,23 +2233,16 @@
       <c r="H31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="24">
         <v>14</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="39"/>
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
@@ -2270,23 +2261,16 @@
       <c r="H32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="24">
         <v>14</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B33" s="23"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="39"/>
       <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
@@ -2305,23 +2289,16 @@
       <c r="H33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="24">
         <v>15</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B34" s="23"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="39"/>
       <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
@@ -2340,23 +2317,16 @@
       <c r="H34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="24">
         <v>16</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B35" s="23"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="39"/>
       <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
@@ -2375,23 +2345,16 @@
       <c r="H35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J35" s="24">
         <v>15</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
+      <c r="O35" s="16"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="39"/>
       <c r="C36" s="2" t="s">
         <v>64</v>
       </c>
@@ -2410,23 +2373,16 @@
       <c r="H36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="24">
         <v>16</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="39"/>
       <c r="C37" s="2" t="s">
         <v>66</v>
       </c>
@@ -2445,23 +2401,16 @@
       <c r="H37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="I37" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="24">
         <v>17</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-    </row>
-    <row r="38" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="24"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="2:15" ht="15" thickBot="1">
+      <c r="B38" s="40"/>
       <c r="C38" s="4" t="s">
         <v>68</v>
       </c>
@@ -2480,61 +2429,15 @@
       <c r="H38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="25">
         <v>18</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
     </row>
   </sheetData>
-  <sortState ref="M24:M36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M24:M36">
     <sortCondition ref="M24"/>
   </sortState>
   <mergeCells count="5">
@@ -2551,25 +2454,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11630A6-24C8-4A93-9A57-EF65D22D534B}">
+  <dimension ref="B1:P46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:N46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="13"/>
+      <c r="C2" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1">
+      <c r="B3" s="14"/>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>6</v>
+      </c>
+      <c r="I3" s="17">
+        <v>7</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="39"/>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="39"/>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="39"/>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="39"/>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="39"/>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="39"/>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="39"/>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="39"/>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="39"/>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="39"/>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="39"/>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="39"/>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="39"/>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="39"/>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="39"/>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="39"/>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="39"/>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="39"/>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="39"/>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="24">
+        <v>11</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="39"/>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="24">
+        <v>12</v>
+      </c>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="39"/>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="24">
+        <v>13</v>
+      </c>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="39"/>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="24">
+        <v>13</v>
+      </c>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="39"/>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="24">
+        <v>14</v>
+      </c>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="39"/>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="24">
+        <v>15</v>
+      </c>
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="39"/>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="24">
+        <v>12</v>
+      </c>
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="39"/>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="24">
+        <v>13</v>
+      </c>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="39"/>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="24">
+        <v>14</v>
+      </c>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="39"/>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="24">
+        <v>14</v>
+      </c>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="39"/>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="24">
+        <v>15</v>
+      </c>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="39"/>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <v>16</v>
+      </c>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="39"/>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="24">
+        <v>15</v>
+      </c>
+      <c r="O35" s="16"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="39"/>
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="24">
+        <v>16</v>
+      </c>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="39"/>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="24">
+        <v>17</v>
+      </c>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="2:15" ht="15" thickBot="1">
+      <c r="B38" s="40"/>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="15" thickBot="1"/>
+    <row r="40" spans="2:15">
+      <c r="K40" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="L40" s="42"/>
+      <c r="M40" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="N40" s="42"/>
+    </row>
+    <row r="41" spans="2:15" ht="58.5" thickBot="1">
+      <c r="K41" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="K42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1</v>
+      </c>
+      <c r="M42" s="32">
+        <v>1400</v>
+      </c>
+      <c r="N42" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="K43" s="2">
+        <v>1380</v>
+      </c>
+      <c r="L43" s="3">
+        <v>5</v>
+      </c>
+      <c r="M43" s="26">
+        <v>1600</v>
+      </c>
+      <c r="N43" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="15" thickBot="1">
+      <c r="K44" s="29">
+        <v>1200</v>
+      </c>
+      <c r="L44" s="31">
+        <v>3</v>
+      </c>
+      <c r="M44" s="26">
+        <v>1180</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="15" thickBot="1">
+      <c r="K45" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45" s="30">
+        <v>1220</v>
+      </c>
+      <c r="N45" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="K46" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B4:B38"/>
+    <mergeCell ref="K46:N46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
